--- a/biology/Zoologie/Churchill_Babington/Churchill_Babington.xlsx
+++ b/biology/Zoologie/Churchill_Babington/Churchill_Babington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Churchill Babington est un archéologue, un  naturaliste et un humaniste britannique, né le 11 mars 1821 à Roecliffe Manor dans le Leicestershire et mort le 12 janvier 1889.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Churchill Babington fait ses études auprès de l’archéologue et orientaliste Charles Wycliffe Goodwin (1817-1878) et entre au St John's College de Cambridge en 1839. Il obtient, en 1845, le prix Hulsean pour un essai intitulé The Influence of Christianity in promoting the Abolition of Slavery in Europe (L’Influence du christianisme sur la promotion de l’abolition de l’esclavage en Europe). En 1846, il entre dans les ordres. Il obtient son Master of Arts la même année et son Doctor of Divinity en 1879.
 De 1848 à 1861, il est vicaire à Horningsea près de Cambridge, à partir de 1866 et jusqu’à sa mort, il est vicaire à Cockfield dans le Suffolk. De 1865 à 1880, il occupe la chaire Disney d’archéologie à Cambridge. Ses cours sont principalement consacrés à la poterie et la numismatique grecque et romaine ; ils les illustrent grâce à des objets provenant de sa collection personnelle.
